--- a/src/main/webapp/excel/order.xlsx
+++ b/src/main/webapp/excel/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED98790-F3A7-4203-8DB5-39778CE5F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E73D5-45BE-4205-8144-F4A991B226CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1815" windowWidth="21600" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>o_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>o_count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -448,23 +456,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
+    <col min="11" max="11" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.5">
+    <row r="1" spans="1:13" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,22 +485,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -495,12 +514,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -508,10 +529,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/webapp/excel/order.xlsx
+++ b/src/main/webapp/excel/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E73D5-45BE-4205-8144-F4A991B226CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975964F-F153-46E9-9403-E6173D76B9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1815" windowWidth="21600" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="1875" windowWidth="24885" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优惠券列表" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>o_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_PAOtime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_Stime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_count</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cakeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cakeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderStime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cakePrice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,28 +463,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="34.25" customWidth="1"/>
-    <col min="11" max="11" width="33.125" customWidth="1"/>
+    <col min="5" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="34.25" customWidth="1"/>
+    <col min="12" max="12" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5">
+    <row r="1" spans="1:14" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,56 +492,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
